--- a/chemical-compound-data/example-compound-data.xlsx
+++ b/chemical-compound-data/example-compound-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\chemical-compound-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E536F610-9CA5-413F-BA98-B45EFF81A62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83981D67-D058-428D-B840-FEFA9C042D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="2084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="2101">
   <si>
     <t>Name</t>
   </si>
@@ -6264,12 +6264,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>Compound dataset</t>
-  </si>
-  <si>
-    <t>CC-BY-SA</t>
-  </si>
-  <si>
     <t>The James Hutton Institute</t>
   </si>
   <si>
@@ -6292,6 +6286,63 @@
   </si>
   <si>
     <t>The "COMPOUNDS" sheet should contain a definition of the different chemical compounds evaluated in your experiment. The "DATA" sheet should contain the compound values in a matrix format where the columns are the compound names and the rows are lines/germplasm names (ACCENUMB of the MCPD). Each cell should contain the compound value for the combination of compound and line/germplasm. Missing data should be represented by an empty cell (not NA or a dash). See the "DATA_EXAMPLE " sheet for an example. Also note, that we only deal with means, i.e. for each line/germplasm and compound there should only be one value. Replicates can be submitted across years by entereing them as different compound datasets. For example 'Compound Experiment 2016' and 'Compound Experiment 2017'.</t>
+  </si>
+  <si>
+    <t>Investigation Title</t>
+  </si>
+  <si>
+    <t>Human-readable string summarising the investigation.</t>
+  </si>
+  <si>
+    <t>Investigation Description</t>
+  </si>
+  <si>
+    <t>Human-readable text describing the investigation in more detail.</t>
+  </si>
+  <si>
+    <t>Investigation unique ID</t>
+  </si>
+  <si>
+    <t>Identifier comprising the unique name of the institution/database hosting the submission of the investigation data, and the accession number of the investigation in that institution.</t>
+  </si>
+  <si>
+    <t>Associated data file link</t>
+  </si>
+  <si>
+    <t>Link to the data file (or digital object) in a public database or in a persistent institutional repository; or identifier of the data file when submitted together with the MIAPPE submission.</t>
+  </si>
+  <si>
+    <t>Associated data file description</t>
+  </si>
+  <si>
+    <t>Description of the format of the data file. May be a standard file format name, or a description of organization of the data in a tabular file.</t>
+  </si>
+  <si>
+    <t>Associated data file version</t>
+  </si>
+  <si>
+    <t>The version of the dataset (the actual data).</t>
+  </si>
+  <si>
+    <t>Example chemical compound dataset</t>
+  </si>
+  <si>
+    <t>An example file demonstrating the use of the chemical compound data template.</t>
+  </si>
+  <si>
+    <t>Contributor role</t>
+  </si>
+  <si>
+    <t>Contributor ID</t>
+  </si>
+  <si>
+    <t>Type of contribution of the person to the investigation (e.g. data submitter; author; corresponding author)</t>
+  </si>
+  <si>
+    <t>An identifier for the data submitter. If that submitter is an individual, ORCID identifiers are recommended.</t>
+  </si>
+  <si>
+    <t>data submitter</t>
   </si>
 </sst>
 </file>
@@ -6301,7 +6352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6368,6 +6419,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6404,12 +6461,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6465,13 +6523,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{AC6FD0CA-C916-4E1F-8927-7A9CF5AB4487}"/>
+    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyymmdd"/>
     </dxf>
@@ -6504,6 +6575,44 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6612,6 +6721,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -6636,8 +6752,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6652,12 +6768,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CDFAA9A6-0123-422D-B80F-81EB2270DAA0}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:C12" xr:uid="{DCA4608A-E2D9-45F1-81E3-F49396F38526}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E86E06D-EB2E-4968-B115-487ED91E358E}" name="Table73" displayName="Table73" ref="A1:C18" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:C18" xr:uid="{6E86E06D-EB2E-4968-B115-487ED91E358E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E03C996-7263-422B-8AA0-13669C78161F}" name="LABEL" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A20F043F-90CD-41BB-866B-522B95F3EC18}" name="DEFINITION" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{139364FF-5D24-40BF-A84C-CF209A3E5D65}" name="VALUE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{9DF2D242-4395-4403-87A9-9D26E02E28EF}" name="LABEL" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{6276A5C3-453D-406E-81C4-B237C3DE4186}" name="DEFINITION" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{18DA5D52-00A1-40A7-9043-25DDF8D3E4A3}" name="VALUE" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6679,11 +6795,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:G3" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:I3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:I3" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C0F490DF-8A75-4F0E-917C-43413CA186D3}" name="Contributor role" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{74158CB6-E922-4908-B044-CAB8469650C4}" name="Contributor ID" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{0A90BD52-57A6-4CDE-BA8E-5136E8A1EAB8}" name="Email" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{03F1C9C1-7B2C-4F0C-B099-1F465D301B93}" name="Phone" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{65BCBC93-FC74-4E14-B6A5-BF465AB5D91D}" name="Contributor" dataDxfId="8"/>
@@ -7044,10 +7162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,25 +7191,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>2074</v>
+      <c r="C2" s="8" t="s">
+        <v>2094</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>2074</v>
+      <c r="C3" s="8" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7101,9 +7219,7 @@
       <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>2075</v>
-      </c>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -7178,49 +7294,108 @@
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="26" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A14" s="26" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="B21" s="11" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B27" s="18" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsBlanks" dxfId="22" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -7269,13 +7444,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C2" t="s">
         <v>2076</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2078</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -7301,94 +7476,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2115B6D0-8EC1-4029-B8F6-04E7D9736B3A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="25" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="2" max="4" width="40.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="22" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="27" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="24" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>2080</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="24" t="s">
+      <c r="I3" s="24" t="s">
         <v>2076</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>2082</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>2078</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{FC2850C3-97DE-40C1-82AA-3513D6F46F57}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{FC2850C3-97DE-40C1-82AA-3513D6F46F57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
